--- a/param_file_templates/Excel/GROUND_fc_simple_salt_seb_snow.xlsx
+++ b/param_file_templates/Excel/GROUND_fc_simple_salt_seb_snow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\CryoGrid\param_file_templates\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\git\CryoGrid\param_file_templates\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="171">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -83,9 +83,6 @@
     <t>heatFlux_lb</t>
   </si>
   <si>
-    <t>STRATIGRAPHY</t>
-  </si>
-  <si>
     <t>mineral</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>---------------------------------------------</t>
   </si>
   <si>
-    <t>depth</t>
-  </si>
-  <si>
     <t>[degree C]</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>lower</t>
   </si>
   <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>BOTTOM</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -140,12 +128,6 @@
     <t>CLASS_END</t>
   </si>
   <si>
-    <t>STRATIGRAPHY_END</t>
-  </si>
-  <si>
-    <t>GRID_END</t>
-  </si>
-  <si>
     <t>waterIce</t>
   </si>
   <si>
@@ -155,9 +137,6 @@
     <t>FORCING</t>
   </si>
   <si>
-    <t>FORCING_END</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -188,9 +167,6 @@
     <t>STRAT_classes</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>STRAT_linear</t>
   </si>
   <si>
@@ -209,9 +185,6 @@
     <t>OUT</t>
   </si>
   <si>
-    <t>OUT_END</t>
-  </si>
-  <si>
     <t>output_timestep</t>
   </si>
   <si>
@@ -242,9 +215,6 @@
     <t>snowfall in forcing file multiplied by this number</t>
   </si>
   <si>
-    <t>variables in STRAT_linear are linearly interpolated, not provided as layers</t>
-  </si>
-  <si>
     <t>area</t>
   </si>
   <si>
@@ -284,102 +254,27 @@
     <t>[hours]</t>
   </si>
   <si>
-    <t>snow_classname</t>
-  </si>
-  <si>
     <t>GROUND_freeW_seb</t>
   </si>
   <si>
     <t>SNOW_crocus_bucketW_seb</t>
   </si>
   <si>
-    <t>TILE_IDENTIFICATION</t>
-  </si>
-  <si>
-    <t>tile_index</t>
-  </si>
-  <si>
-    <t>tile_name</t>
-  </si>
-  <si>
-    <t>standard tile</t>
-  </si>
-  <si>
-    <t>example to adapt to the type of soil column/environment</t>
-  </si>
-  <si>
-    <t>coordinates</t>
-  </si>
-  <si>
-    <t>[0, 0, 0]</t>
-  </si>
-  <si>
-    <t>3 floats identifying X/Y/Z or lat/lon/elev</t>
-  </si>
-  <si>
-    <t>crs</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>XYZ: cartesian system, epsg code eg. 4326 for lat/lon (WGS84)</t>
-  </si>
-  <si>
-    <t>height_system</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>msl: mean sea level, ell: ellipsoidal height, none: no reference</t>
-  </si>
-  <si>
-    <t>forcing_id</t>
-  </si>
-  <si>
     <t>index representative of the order in which the forcing class is listed in the configuration file (NOT the class index !)</t>
   </si>
   <si>
-    <t>grid_id</t>
-  </si>
-  <si>
     <t>index representative of the order in which the grid class is listed in the configuration file (NOT the class index !)</t>
   </si>
   <si>
-    <t>out_id</t>
-  </si>
-  <si>
     <t>index representative of the order in which the out class is listed in the configuration file (NOT the class index !)</t>
   </si>
   <si>
-    <t>strat_linear_id</t>
-  </si>
-  <si>
     <t>index representative of the order in which the strat_linear class is listed in the configuration file (NOT the class index !)</t>
   </si>
   <si>
-    <t>strat_layers_id</t>
-  </si>
-  <si>
-    <t>index representative of the order in which the strat_layer class is listed in the configuration file (NOT the class index !)</t>
-  </si>
-  <si>
-    <t>strat_classes_id</t>
-  </si>
-  <si>
     <t>index representative of the order in which the strat_classes class is listed in the configuration file (NOT the class index !)</t>
   </si>
   <si>
-    <t>TILE_IDENTIFICATION_END</t>
-  </si>
-  <si>
-    <t>lateral_interactions</t>
-  </si>
-  <si>
-    <t>LIST</t>
-  </si>
-  <si>
     <t>END</t>
   </si>
   <si>
@@ -401,9 +296,6 @@
     <t>deltaT</t>
   </si>
   <si>
-    <t>[mol/m3]</t>
-  </si>
-  <si>
     <t>[s/m]</t>
   </si>
   <si>
@@ -528,6 +420,123 @@
   </si>
   <si>
     <t>height at which air temperature is provided</t>
+  </si>
+  <si>
+    <t>RUN_INFO</t>
+  </si>
+  <si>
+    <t>RUN_1D_STANDARD</t>
+  </si>
+  <si>
+    <t>tile_class</t>
+  </si>
+  <si>
+    <t>TILE_1D_standard</t>
+  </si>
+  <si>
+    <t>tile_class_index</t>
+  </si>
+  <si>
+    <t>TILE</t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>new_init</t>
+  </si>
+  <si>
+    <t>forcing_class</t>
+  </si>
+  <si>
+    <t>forcing_class_index</t>
+  </si>
+  <si>
+    <t>grid_class</t>
+  </si>
+  <si>
+    <t>grid_class_index</t>
+  </si>
+  <si>
+    <t>out_class</t>
+  </si>
+  <si>
+    <t>out_class_index</t>
+  </si>
+  <si>
+    <t>strat_classes_class</t>
+  </si>
+  <si>
+    <t>strat_classes_class_index</t>
+  </si>
+  <si>
+    <t>strat_statvar_class</t>
+  </si>
+  <si>
+    <t>H_LIST</t>
+  </si>
+  <si>
+    <t>strat_statvar_class_index</t>
+  </si>
+  <si>
+    <t>lateral_class</t>
+  </si>
+  <si>
+    <t>lateral_class_index</t>
+  </si>
+  <si>
+    <t>lateral_IA_classes</t>
+  </si>
+  <si>
+    <t>lateral_IA_classes_index</t>
+  </si>
+  <si>
+    <t>restart_file_path</t>
+  </si>
+  <si>
+    <t>restart_file_name</t>
+  </si>
+  <si>
+    <t>OUT_last_timestep</t>
+  </si>
+  <si>
+    <t>save_timestep</t>
+  </si>
+  <si>
+    <t>forcing_path</t>
+  </si>
+  <si>
+    <t>../forcing/</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>V_MATRIX</t>
+  </si>
+  <si>
+    <t>STRATIGRAPHY_CLASSES</t>
+  </si>
+  <si>
+    <t>classes</t>
+  </si>
+  <si>
+    <t>STRAT_MATRIX</t>
+  </si>
+  <si>
+    <t>snow_class_name</t>
+  </si>
+  <si>
+    <t>sleeping_classes_name</t>
+  </si>
+  <si>
+    <t>sleeping_classes_index</t>
+  </si>
+  <si>
+    <t>STRATIGRAPHY_STATVAR</t>
+  </si>
+  <si>
+    <t>layers</t>
   </si>
 </sst>
 </file>
@@ -579,13 +588,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -870,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,926 +894,957 @@
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
         <v>94</v>
       </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22">
-        <v>0.25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" t="s">
-        <v>162</v>
-      </c>
+      <c r="F28" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="A36" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>70</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
+      <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
+      <c r="A38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>0.25</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D58" s="5">
+        <v>9</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>18</v>
       </c>
-      <c r="B42">
+      <c r="B62">
         <v>0.05</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C62" t="s">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43">
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <v>0.05</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>0.1</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>0.2</v>
-      </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>10</v>
-      </c>
-      <c r="B56">
-        <v>0.5</v>
-      </c>
-      <c r="C56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>20</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>0</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>10</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69">
+      <c r="A68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0.05</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0.1</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>0.2</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>0.5</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1</v>
+      </c>
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1</v>
-      </c>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="G96" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0.3</v>
+      </c>
+      <c r="D97">
+        <v>0.5</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0.3</v>
+      </c>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0.5</v>
+      </c>
+      <c r="C98">
+        <v>0.5</v>
+      </c>
+      <c r="D98">
+        <v>0.5</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0.5</v>
+      </c>
+      <c r="G98">
+        <v>0.3</v>
+      </c>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>0.5</v>
+      </c>
+      <c r="D99">
+        <v>0.5</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" t="s">
-        <v>125</v>
-      </c>
-      <c r="F81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>0.3</v>
-      </c>
-      <c r="C83">
-        <v>0.5</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>500</v>
-      </c>
-      <c r="F83">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>0.5</v>
-      </c>
-      <c r="B84">
-        <v>0.5</v>
-      </c>
-      <c r="C84">
-        <v>0.5</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>10</v>
-      </c>
-      <c r="B85">
-        <v>0.5</v>
-      </c>
-      <c r="C85">
-        <v>0.5</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>0</v>
-      </c>
-      <c r="B96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>2</v>
-      </c>
-      <c r="B98">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>100</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>5000</v>
-      </c>
-      <c r="B100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="6"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B108" s="7">
-        <v>1</v>
-      </c>
-      <c r="C108" s="6"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="6">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D110" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
       <c r="B111">
         <v>0.15</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="5">
         <v>0.15</v>
       </c>
       <c r="D111" t="s">
@@ -1815,14 +1854,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112">
         <v>0.9</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="5">
         <v>0.99</v>
       </c>
       <c r="D112" t="s">
@@ -1839,7 +1878,7 @@
       <c r="B113">
         <v>0.01</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="5">
         <v>1E-3</v>
       </c>
       <c r="D113" t="s">
@@ -1851,46 +1890,46 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B114">
         <v>100</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="5">
         <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="E114" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B115">
         <v>1.5</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="5">
         <v>1.5</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116" s="6">
+        <v>48</v>
+      </c>
+      <c r="B116" s="5">
         <v>3600</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="5">
         <v>3600</v>
       </c>
       <c r="D116" t="s">
@@ -1902,12 +1941,12 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="6">
+        <v>49</v>
+      </c>
+      <c r="B117" s="5">
         <v>50000</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="5">
         <v>50000</v>
       </c>
       <c r="D117" t="s">
@@ -1919,7 +1958,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,33 +1966,33 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B124" s="7">
+        <v>76</v>
+      </c>
+      <c r="B124" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="6"/>
+      <c r="B125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D126" t="s">
@@ -1964,10 +2003,10 @@
       <c r="A127" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="5">
         <v>0.15</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="5">
         <v>0.15</v>
       </c>
       <c r="D127" t="s">
@@ -1981,10 +2020,10 @@
       <c r="A128" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="5">
         <v>0.99</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="5">
         <v>0.99</v>
       </c>
       <c r="D128" t="s">
@@ -1998,10 +2037,10 @@
       <c r="A129" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="5">
         <v>1E-3</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="5">
         <v>1E-3</v>
       </c>
       <c r="D129" t="s">
@@ -2013,21 +2052,21 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>75</v>
-      </c>
-      <c r="B130" s="6">
+        <v>65</v>
+      </c>
+      <c r="B130" s="5">
         <v>100</v>
       </c>
-      <c r="C130" s="6"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E131" t="s">
@@ -2036,12 +2075,12 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>56</v>
-      </c>
-      <c r="B132" s="6">
+        <v>48</v>
+      </c>
+      <c r="B132" s="5">
         <v>3600</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="5">
         <v>3600</v>
       </c>
       <c r="D132" t="s">
@@ -2053,12 +2092,12 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>57</v>
-      </c>
-      <c r="B133" s="6">
+        <v>49</v>
+      </c>
+      <c r="B133" s="5">
         <v>50000</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="5">
         <v>50000</v>
       </c>
       <c r="D133" t="s">
@@ -2070,19 +2109,19 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C137" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D137" t="s">
@@ -2091,52 +2130,52 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B138" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="6"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B139" s="7">
-        <v>1</v>
-      </c>
-      <c r="C139" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="B139" s="6">
+        <v>1</v>
+      </c>
+      <c r="C139" s="5"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>81</v>
-      </c>
-      <c r="B142" s="6">
+        <v>71</v>
+      </c>
+      <c r="B142" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>83</v>
-      </c>
-      <c r="B143" s="6">
+        <v>73</v>
+      </c>
+      <c r="B143" s="5">
         <v>0.71</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>82</v>
-      </c>
-      <c r="B144" s="6">
+        <v>72</v>
+      </c>
+      <c r="B144" s="5">
         <v>0.21</v>
       </c>
     </row>
@@ -2144,10 +2183,10 @@
       <c r="A145" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="5">
         <v>0.99</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="5">
         <v>0.99</v>
       </c>
       <c r="D145" t="s">
@@ -2161,10 +2200,10 @@
       <c r="A146" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="5">
         <v>1E-3</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="5">
         <v>1E-3</v>
       </c>
       <c r="D146" t="s">
@@ -2176,60 +2215,60 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>75</v>
-      </c>
-      <c r="B147" s="6">
+        <v>65</v>
+      </c>
+      <c r="B147" s="5">
         <v>0</v>
       </c>
-      <c r="C147" s="6"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>84</v>
-      </c>
-      <c r="B148" s="6">
+        <v>74</v>
+      </c>
+      <c r="B148" s="5">
         <v>48</v>
       </c>
-      <c r="C148" s="6"/>
+      <c r="C148" s="5"/>
       <c r="D148" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>41</v>
-      </c>
-      <c r="B149" s="6">
+        <v>35</v>
+      </c>
+      <c r="B149" s="5">
         <v>0.05</v>
       </c>
-      <c r="C149" s="6"/>
+      <c r="C149" s="5"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150" s="9">
+        <v>69</v>
+      </c>
+      <c r="B150" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C150" s="6"/>
+      <c r="C150" s="5"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>80</v>
-      </c>
-      <c r="B151" s="6">
+        <v>70</v>
+      </c>
+      <c r="B151" s="5">
         <v>0.02</v>
       </c>
-      <c r="C151" s="6"/>
+      <c r="C151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>56</v>
-      </c>
-      <c r="B152" s="6">
+        <v>48</v>
+      </c>
+      <c r="B152" s="5">
         <v>3600</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="5">
         <v>3600</v>
       </c>
       <c r="D152" t="s">
@@ -2241,12 +2280,12 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>57</v>
-      </c>
-      <c r="B153" s="6">
+        <v>49</v>
+      </c>
+      <c r="B153" s="5">
         <v>50000</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="5">
         <v>50000</v>
       </c>
       <c r="D153" t="s">
@@ -2257,58 +2296,58 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>37</v>
-      </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>22</v>
-      </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B159" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C159" s="6"/>
+      <c r="C159" s="5"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B160" s="7">
-        <v>1</v>
-      </c>
-      <c r="C160" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="B160" s="6">
+        <v>1</v>
+      </c>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D162" t="s">
@@ -2317,54 +2356,54 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>119</v>
-      </c>
-      <c r="B163" s="6">
+        <v>84</v>
+      </c>
+      <c r="B163" s="5">
         <v>0.25</v>
       </c>
-      <c r="C163" s="6"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>37</v>
-      </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B168" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="6"/>
+      <c r="C168" s="5"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B169" s="6">
-        <v>1</v>
-      </c>
-      <c r="C169" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1</v>
+      </c>
+      <c r="C169" s="5"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
@@ -2379,122 +2418,122 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>134</v>
-      </c>
-      <c r="B172" s="6">
+        <v>98</v>
+      </c>
+      <c r="B172" s="5">
         <v>100000</v>
       </c>
-      <c r="C172" s="6"/>
+      <c r="C172" s="5"/>
       <c r="D172" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E172" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>137</v>
-      </c>
-      <c r="B173" s="6">
+        <v>101</v>
+      </c>
+      <c r="B173" s="5">
         <v>15</v>
       </c>
-      <c r="C173" s="6"/>
+      <c r="C173" s="5"/>
       <c r="D173" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E173" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>139</v>
-      </c>
-      <c r="B174" s="6">
+        <v>103</v>
+      </c>
+      <c r="B174" s="5">
         <v>0.03</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="5">
         <v>0.03</v>
       </c>
       <c r="D174" t="s">
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>141</v>
-      </c>
-      <c r="B175" s="6">
+        <v>105</v>
+      </c>
+      <c r="B175" s="5">
         <v>10</v>
       </c>
-      <c r="C175" s="6"/>
+      <c r="C175" s="5"/>
       <c r="D175" t="s">
         <v>6</v>
       </c>
       <c r="E175" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>143</v>
-      </c>
-      <c r="B176" s="6">
+        <v>107</v>
+      </c>
+      <c r="B176" s="5">
         <v>10</v>
       </c>
-      <c r="C176" s="6"/>
+      <c r="C176" s="5"/>
       <c r="D176" t="s">
         <v>6</v>
       </c>
       <c r="E176" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>37</v>
-      </c>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B181" t="s">
         <v>14</v>
       </c>
-      <c r="C181" s="6"/>
+      <c r="C181" s="5"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B182" s="6">
-        <v>1</v>
-      </c>
-      <c r="C182" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="B182" s="5">
+        <v>1</v>
+      </c>
+      <c r="C182" s="5"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
@@ -2509,94 +2548,94 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>146</v>
-      </c>
-      <c r="B185" s="6">
+        <v>110</v>
+      </c>
+      <c r="B185" s="5">
         <v>18</v>
       </c>
-      <c r="C185" s="6"/>
+      <c r="C185" s="5"/>
       <c r="D185" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E185" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>148</v>
-      </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>139</v>
-      </c>
-      <c r="B187" s="6">
+        <v>103</v>
+      </c>
+      <c r="B187" s="5">
         <v>0.03</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="5">
         <v>0.03</v>
       </c>
       <c r="D187" t="s">
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>150</v>
-      </c>
-      <c r="B188" s="6">
+        <v>114</v>
+      </c>
+      <c r="B188" s="5">
         <v>10</v>
       </c>
-      <c r="C188" s="6"/>
+      <c r="C188" s="5"/>
       <c r="D188" t="s">
         <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>152</v>
-      </c>
-      <c r="B189" s="6">
+        <v>116</v>
+      </c>
+      <c r="B189" s="5">
         <v>10</v>
       </c>
-      <c r="C189" s="6"/>
+      <c r="C189" s="5"/>
       <c r="D189" t="s">
         <v>6</v>
       </c>
       <c r="E189" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>37</v>
-      </c>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>14</v>
@@ -2604,7 +2643,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -2623,22 +2662,22 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>14</v>
@@ -2646,7 +2685,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -2665,12 +2704,12 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
